--- a/Measurements/4429K465 brass pipe fitter/4429K465.xlsx
+++ b/Measurements/4429K465 brass pipe fitter/4429K465.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\manoe\Meng\solidworks\Measurements\4429K465 brass pipe fitter\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D568515-FF1C-4E95-A276-FD359D4A9852}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99D6FDA3-6692-4901-B0C8-7F4DDDA977DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
